--- a/LNA_BoM.xlsx
+++ b/LNA_BoM.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3046BB88-5111-4A5F-BFBD-E8C83570BC38}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{53661497-780C-427F-B3CD-32BECB2B238F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18396" windowHeight="6288" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Misc" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="84">
   <si>
     <t>Designator</t>
   </si>
@@ -266,6 +267,12 @@
   </si>
   <si>
     <t>M5 ground lug</t>
+  </si>
+  <si>
+    <t>https://uk.farnell.com/amphenol-connex/132360/rf-coaxial-sma-plug-50ohm/dp/2112480</t>
+  </si>
+  <si>
+    <t>50R SMA termination</t>
   </si>
 </sst>
 </file>
@@ -647,8 +654,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1113,4 +1120,63 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId16"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B785CB43-F98F-4239-8981-6F5AAD186DE2}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" style="14" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" style="14" customWidth="1"/>
+    <col min="6" max="6" width="66.88671875" style="14" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>132360</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>